--- a/level-3/hackerrank/phase-3-mathematics-1/hackerrank-phase-3-mathematics-1.xlsx
+++ b/level-3/hackerrank/phase-3-mathematics-1/hackerrank-phase-3-mathematics-1.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E725B24-0515-4E77-835F-774EB174317F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A48985F-BAAA-447B-8A8F-041360450F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="level 3 - mathematics 1" sheetId="14" r:id="rId1"/>
+    <sheet name="mathematics-1" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -612,12 +625,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -630,22 +643,13 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,42 +693,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -1188,7 +1157,7 @@
   <dimension ref="A1:J128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C124" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" sqref="A1:A3"/>
@@ -1198,81 +1167,81 @@
   <cols>
     <col min="1" max="1" width="33.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
+    <col min="3" max="7" width="15.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="9" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="17"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f>AVERAGE(C4:C101)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C101)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f>AVERAGE(D4:D101)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f>AVERAGE(E4:E101)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f>AVERAGE(F4:F101)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f>AVERAGE(G4:G101)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H4:H101)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -1291,17 +1260,17 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="7">
-        <f t="shared" ref="H4:H28" si="0">SUM(C4:G4)</f>
+        <f t="shared" ref="H4:H28" si="1">SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1312,16 +1281,16 @@
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="13" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1338,11 +1307,11 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1359,11 +1328,11 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1380,11 +1349,11 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1401,11 +1370,11 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1422,11 +1391,11 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1443,11 +1412,11 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1458,17 +1427,17 @@
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1485,11 +1454,11 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1500,17 +1469,17 @@
       <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="12">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7">
         <f>SUM(C14:G14)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="13" t="s">
+      <c r="I14" s="2"/>
+      <c r="J14" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1521,17 +1490,17 @@
       <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="12">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7">
         <f>SUM(C15:G15)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="13" t="s">
+      <c r="I15" s="2"/>
+      <c r="J15" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1542,17 +1511,17 @@
       <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="12">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7">
         <f>SUM(C16:G16)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="13" t="s">
+      <c r="I16" s="2"/>
+      <c r="J16" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1569,11 +1538,11 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1590,11 +1559,11 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1611,11 +1580,11 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1632,11 +1601,11 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1653,11 +1622,11 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1674,11 +1643,11 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1689,17 +1658,17 @@
       <c r="B23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1710,17 +1679,17 @@
       <c r="B24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1737,11 +1706,11 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1758,11 +1727,11 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1773,17 +1742,17 @@
       <c r="B27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1794,17 +1763,17 @@
       <c r="B28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1821,11 +1790,11 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <f t="shared" ref="H29:H60" si="1">SUM(C29:G29)</f>
+        <f t="shared" ref="H29:H60" si="2">SUM(C29:G29)</f>
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1836,17 +1805,17 @@
       <c r="B30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1863,11 +1832,11 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1878,17 +1847,17 @@
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="13" t="s">
+      <c r="J32" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1905,11 +1874,11 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1926,11 +1895,11 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1947,11 +1916,11 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1968,11 +1937,11 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1983,17 +1952,17 @@
       <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2004,17 +1973,17 @@
       <c r="B38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="13" t="s">
+      <c r="J38" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2025,17 +1994,17 @@
       <c r="B39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="13" t="s">
+      <c r="J39" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2046,17 +2015,17 @@
       <c r="B40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="13" t="s">
+      <c r="J40" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2073,11 +2042,11 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="13" t="s">
+      <c r="J41" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2088,17 +2057,17 @@
       <c r="B42" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="13" t="s">
+      <c r="J42" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2115,11 +2084,11 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="13" t="s">
+      <c r="J43" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2136,11 +2105,11 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2157,11 +2126,11 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="13" t="s">
+      <c r="J45" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2178,11 +2147,11 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="13" t="s">
+      <c r="J46" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2193,17 +2162,17 @@
       <c r="B47" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
       <c r="H47" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="13" t="s">
+      <c r="J47" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2214,17 +2183,17 @@
       <c r="B48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="13" t="s">
+      <c r="J48" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2235,17 +2204,17 @@
       <c r="B49" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
       <c r="H49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="13" t="s">
+      <c r="J49" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2256,17 +2225,17 @@
       <c r="B50" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="13" t="s">
+      <c r="J50" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2277,17 +2246,17 @@
       <c r="B51" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="13" t="s">
+      <c r="J51" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2304,11 +2273,11 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="13" t="s">
+      <c r="J52" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2319,17 +2288,17 @@
       <c r="B53" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="13" t="s">
+      <c r="J53" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2346,11 +2315,11 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="13" t="s">
+      <c r="J54" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2367,11 +2336,11 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="13" t="s">
+      <c r="J55" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2388,11 +2357,11 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="13" t="s">
+      <c r="J56" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2409,11 +2378,11 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="13" t="s">
+      <c r="J57" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2424,17 +2393,17 @@
       <c r="B58" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
       <c r="H58" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="13" t="s">
+      <c r="J58" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2445,17 +2414,17 @@
       <c r="B59" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="13" t="s">
+      <c r="J59" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2472,11 +2441,11 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="13" t="s">
+      <c r="J60" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2487,17 +2456,17 @@
       <c r="B61" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
       <c r="H61" s="7">
-        <f t="shared" ref="H61:H88" si="2">SUM(C61:G61)</f>
+        <f t="shared" ref="H61:H88" si="3">SUM(C61:G61)</f>
         <v>0</v>
       </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="13" t="s">
+      <c r="J61" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2508,17 +2477,17 @@
       <c r="B62" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
       <c r="H62" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="13" t="s">
+      <c r="J62" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2535,11 +2504,11 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I63" s="2"/>
-      <c r="J63" s="13" t="s">
+      <c r="J63" s="10" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2550,17 +2519,17 @@
       <c r="B64" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
       <c r="H64" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I64" s="2"/>
-      <c r="J64" s="13" t="s">
+      <c r="J64" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2571,17 +2540,17 @@
       <c r="B65" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
       <c r="H65" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I65" s="2"/>
-      <c r="J65" s="13" t="s">
+      <c r="J65" s="10" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2592,17 +2561,17 @@
       <c r="B66" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
       <c r="H66" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="13" t="s">
+      <c r="J66" s="10" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2613,16 +2582,16 @@
       <c r="B67" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2633,16 +2602,16 @@
       <c r="B68" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2659,10 +2628,10 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="11" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2679,10 +2648,10 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="11" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2699,10 +2668,10 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2719,10 +2688,10 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2733,16 +2702,16 @@
       <c r="B73" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
       <c r="H73" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2753,16 +2722,16 @@
       <c r="B74" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
       <c r="H74" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2773,16 +2742,16 @@
       <c r="B75" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
       <c r="H75" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2793,16 +2762,16 @@
       <c r="B76" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
       <c r="H76" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2813,16 +2782,16 @@
       <c r="B77" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
       <c r="H77" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2833,16 +2802,16 @@
       <c r="B78" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
       <c r="H78" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2853,16 +2822,16 @@
       <c r="B79" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
       <c r="H79" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2873,16 +2842,16 @@
       <c r="B80" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
       <c r="H80" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2893,16 +2862,16 @@
       <c r="B81" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
       <c r="H81" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2919,10 +2888,10 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2939,10 +2908,10 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2953,16 +2922,16 @@
       <c r="B84" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
       <c r="H84" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="11" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2979,10 +2948,10 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2993,16 +2962,16 @@
       <c r="B86" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
       <c r="H86" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="11" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3013,16 +2982,16 @@
       <c r="B87" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
       <c r="H87" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3033,16 +3002,16 @@
       <c r="B88" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
       <c r="H88" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3053,16 +3022,16 @@
       <c r="B89" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
       <c r="H89" s="7">
-        <f t="shared" ref="H89:H94" si="3">SUM(C89:G89)</f>
-        <v>0</v>
-      </c>
-      <c r="J89" s="14" t="s">
+        <f t="shared" ref="H89:H94" si="4">SUM(C89:G89)</f>
+        <v>0</v>
+      </c>
+      <c r="J89" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3079,10 +3048,10 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3099,10 +3068,10 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3113,16 +3082,16 @@
       <c r="B92" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
       <c r="H92" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3133,16 +3102,16 @@
       <c r="B93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
       <c r="H93" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3153,16 +3122,16 @@
       <c r="B94" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
       <c r="H94" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3173,16 +3142,16 @@
       <c r="B95" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="12">
-        <f t="shared" ref="H95:H101" si="4">SUM(C95:G95)</f>
-        <v>0</v>
-      </c>
-      <c r="J95" s="14" t="s">
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="7">
+        <f t="shared" ref="H95:H101" si="5">SUM(C95:G95)</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="11" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3193,16 +3162,16 @@
       <c r="B96" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="14" t="s">
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="11" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3213,16 +3182,16 @@
       <c r="B97" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="14" t="s">
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="11" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3233,16 +3202,16 @@
       <c r="B98" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="14" t="s">
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="11" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3253,16 +3222,16 @@
       <c r="B99" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="14" t="s">
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3273,16 +3242,16 @@
       <c r="B100" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="14" t="s">
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="11" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3293,16 +3262,16 @@
       <c r="B101" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="14" t="s">
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3313,16 +3282,16 @@
       <c r="B102" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="12">
-        <f t="shared" ref="H102:H128" si="5">SUM(C102:G102)</f>
-        <v>0</v>
-      </c>
-      <c r="J102" s="14" t="s">
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="7">
+        <f t="shared" ref="H102:H128" si="6">SUM(C102:G102)</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3333,16 +3302,16 @@
       <c r="B103" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="14" t="s">
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3353,16 +3322,16 @@
       <c r="B104" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="14" t="s">
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="11" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3373,16 +3342,16 @@
       <c r="B105" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="14" t="s">
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="11" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3393,16 +3362,16 @@
       <c r="B106" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="14" t="s">
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="11" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3413,16 +3382,16 @@
       <c r="B107" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="14" t="s">
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="11" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3433,16 +3402,16 @@
       <c r="B108" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="14" t="s">
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="11" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3453,16 +3422,16 @@
       <c r="B109" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="14" t="s">
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="11" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3473,16 +3442,16 @@
       <c r="B110" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="14" t="s">
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="11" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3493,16 +3462,16 @@
       <c r="B111" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="14" t="s">
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="11" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3513,16 +3482,16 @@
       <c r="B112" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="14" t="s">
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="11" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3533,16 +3502,16 @@
       <c r="B113" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="14" t="s">
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="11" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3553,16 +3522,16 @@
       <c r="B114" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J114" s="14" t="s">
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3573,16 +3542,16 @@
       <c r="B115" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="14" t="s">
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3593,16 +3562,16 @@
       <c r="B116" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J116" s="14" t="s">
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="11" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3613,16 +3582,16 @@
       <c r="B117" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="14" t="s">
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="11" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3633,16 +3602,16 @@
       <c r="B118" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="14" t="s">
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="11" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3653,16 +3622,16 @@
       <c r="B119" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="14" t="s">
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="11" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3673,16 +3642,16 @@
       <c r="B120" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="14" t="s">
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="11" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3693,16 +3662,16 @@
       <c r="B121" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="14" t="s">
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="11" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3713,16 +3682,16 @@
       <c r="B122" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="14" t="s">
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3733,16 +3702,16 @@
       <c r="B123" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="14" t="s">
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="11" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3753,16 +3722,16 @@
       <c r="B124" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="14" t="s">
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="11" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3773,16 +3742,16 @@
       <c r="B125" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="14" t="s">
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="11" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3793,16 +3762,16 @@
       <c r="B126" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="14" t="s">
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="11" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3813,16 +3782,16 @@
       <c r="B127" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J127" s="14" t="s">
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="11" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3833,16 +3802,16 @@
       <c r="B128" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J128" s="14" t="s">
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3860,92 +3829,92 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="J1 A1 I17:J19">
-    <cfRule type="cellIs" dxfId="22" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="21" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="20" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56:J58 J60:J63">
-    <cfRule type="cellIs" dxfId="19" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59">
-    <cfRule type="cellIs" dxfId="18" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J64">
-    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56:J64">
-    <cfRule type="cellIs" dxfId="16" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J65">
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J65">
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J66">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J66">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:I58 I60:I63">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:I64">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/level-3/hackerrank/phase-3-mathematics-1/hackerrank-phase-3-mathematics-1.xlsx
+++ b/level-3/hackerrank/phase-3-mathematics-1/hackerrank-phase-3-mathematics-1.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A48985F-BAAA-447B-8A8F-041360450F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5CCD1B-EE0B-4714-94AB-283F2AADFC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mathematics-1" sheetId="14" r:id="rId1"/>
+    <sheet name="hackerrank mathematics-1" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1221,27 +1221,27 @@
       <c r="A3" s="18"/>
       <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C101)</f>
+        <f>AVERAGE(C4:C1001)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4:D1001)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E4:E1001)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4:F1001)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G4:G1001)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H4:H1001)</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -1266,7 +1266,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7">
-        <f t="shared" ref="H4:H28" si="1">SUM(C4:G4)</f>
+        <f t="shared" ref="H4:H28" si="0">SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -1287,7 +1287,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="10" t="s">
@@ -1307,7 +1307,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
@@ -1328,7 +1328,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
@@ -1349,7 +1349,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
@@ -1370,7 +1370,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
@@ -1391,7 +1391,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
@@ -1412,7 +1412,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
@@ -1433,7 +1433,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
@@ -1454,7 +1454,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
@@ -1538,7 +1538,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
@@ -1559,7 +1559,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
@@ -1580,7 +1580,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
@@ -1601,7 +1601,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
@@ -1622,7 +1622,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
@@ -1643,7 +1643,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
@@ -1664,7 +1664,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
@@ -1685,7 +1685,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
@@ -1706,7 +1706,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
@@ -1727,7 +1727,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
@@ -1748,7 +1748,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
@@ -1769,7 +1769,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
@@ -1790,7 +1790,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <f t="shared" ref="H29:H60" si="2">SUM(C29:G29)</f>
+        <f t="shared" ref="H29:H60" si="1">SUM(C29:G29)</f>
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
@@ -1811,7 +1811,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
@@ -1832,7 +1832,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
@@ -1853,7 +1853,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
@@ -1874,7 +1874,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
@@ -1895,7 +1895,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
@@ -1916,7 +1916,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
@@ -1937,7 +1937,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
@@ -1958,7 +1958,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
@@ -1979,7 +1979,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
@@ -2000,7 +2000,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
@@ -2021,7 +2021,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40" s="2"/>
@@ -2042,7 +2042,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
@@ -2063,7 +2063,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
@@ -2084,7 +2084,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
@@ -2105,7 +2105,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
@@ -2126,7 +2126,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
@@ -2147,7 +2147,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
@@ -2168,7 +2168,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
@@ -2189,7 +2189,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
@@ -2210,7 +2210,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
@@ -2231,7 +2231,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
@@ -2252,7 +2252,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
@@ -2273,7 +2273,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
@@ -2294,7 +2294,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
@@ -2315,7 +2315,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
@@ -2336,7 +2336,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
@@ -2357,7 +2357,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I56" s="2"/>
@@ -2378,7 +2378,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I57" s="2"/>
@@ -2399,7 +2399,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I58" s="2"/>
@@ -2420,7 +2420,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I59" s="2"/>
@@ -2441,7 +2441,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I60" s="2"/>
@@ -2462,7 +2462,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="7">
-        <f t="shared" ref="H61:H88" si="3">SUM(C61:G61)</f>
+        <f t="shared" ref="H61:H88" si="2">SUM(C61:G61)</f>
         <v>0</v>
       </c>
       <c r="I61" s="2"/>
@@ -2483,7 +2483,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I62" s="2"/>
@@ -2504,7 +2504,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I63" s="2"/>
@@ -2525,7 +2525,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I64" s="2"/>
@@ -2546,7 +2546,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I65" s="2"/>
@@ -2567,7 +2567,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I66" s="2"/>
@@ -2588,7 +2588,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J67" s="11" t="s">
@@ -2608,7 +2608,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J68" s="11" t="s">
@@ -2628,7 +2628,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J69" s="11" t="s">
@@ -2648,7 +2648,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J70" s="11" t="s">
@@ -2668,7 +2668,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J71" s="11" t="s">
@@ -2688,7 +2688,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J72" s="11" t="s">
@@ -2708,7 +2708,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J73" s="11" t="s">
@@ -2728,7 +2728,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J74" s="11" t="s">
@@ -2748,7 +2748,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J75" s="11" t="s">
@@ -2768,7 +2768,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J76" s="11" t="s">
@@ -2788,7 +2788,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J77" s="11" t="s">
@@ -2808,7 +2808,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J78" s="11" t="s">
@@ -2828,7 +2828,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J79" s="11" t="s">
@@ -2848,7 +2848,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J80" s="11" t="s">
@@ -2868,7 +2868,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J81" s="11" t="s">
@@ -2888,7 +2888,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J82" s="11" t="s">
@@ -2908,7 +2908,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J83" s="11" t="s">
@@ -2928,7 +2928,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J84" s="11" t="s">
@@ -2948,7 +2948,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J85" s="11" t="s">
@@ -2968,7 +2968,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J86" s="11" t="s">
@@ -2988,7 +2988,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J87" s="11" t="s">
@@ -3008,7 +3008,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J88" s="11" t="s">
@@ -3028,7 +3028,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="7">
-        <f t="shared" ref="H89:H94" si="4">SUM(C89:G89)</f>
+        <f t="shared" ref="H89:H94" si="3">SUM(C89:G89)</f>
         <v>0</v>
       </c>
       <c r="J89" s="11" t="s">
@@ -3048,7 +3048,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J90" s="11" t="s">
@@ -3068,7 +3068,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J91" s="11" t="s">
@@ -3088,7 +3088,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J92" s="11" t="s">
@@ -3108,7 +3108,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J93" s="11" t="s">
@@ -3128,7 +3128,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J94" s="11" t="s">
@@ -3148,7 +3148,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="7">
-        <f t="shared" ref="H95:H101" si="5">SUM(C95:G95)</f>
+        <f t="shared" ref="H95:H101" si="4">SUM(C95:G95)</f>
         <v>0</v>
       </c>
       <c r="J95" s="11" t="s">
@@ -3168,7 +3168,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J96" s="11" t="s">
@@ -3188,7 +3188,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J97" s="11" t="s">
@@ -3208,7 +3208,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J98" s="11" t="s">
@@ -3228,7 +3228,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J99" s="11" t="s">
@@ -3248,7 +3248,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J100" s="11" t="s">
@@ -3268,7 +3268,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J101" s="11" t="s">
@@ -3288,7 +3288,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="7">
-        <f t="shared" ref="H102:H128" si="6">SUM(C102:G102)</f>
+        <f t="shared" ref="H102:H128" si="5">SUM(C102:G102)</f>
         <v>0</v>
       </c>
       <c r="J102" s="11" t="s">
@@ -3308,7 +3308,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J103" s="11" t="s">
@@ -3328,7 +3328,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J104" s="11" t="s">
@@ -3348,7 +3348,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J105" s="11" t="s">
@@ -3368,7 +3368,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J106" s="11" t="s">
@@ -3388,7 +3388,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J107" s="11" t="s">
@@ -3408,7 +3408,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J108" s="11" t="s">
@@ -3428,7 +3428,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J109" s="11" t="s">
@@ -3448,7 +3448,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J110" s="11" t="s">
@@ -3468,7 +3468,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J111" s="11" t="s">
@@ -3488,7 +3488,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J112" s="11" t="s">
@@ -3508,7 +3508,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J113" s="11" t="s">
@@ -3528,7 +3528,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J114" s="11" t="s">
@@ -3548,7 +3548,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c r="H115" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J115" s="11" t="s">
@@ -3568,7 +3568,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c r="H116" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J116" s="11" t="s">
@@ -3588,7 +3588,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J117" s="11" t="s">
@@ -3608,7 +3608,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c r="H118" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J118" s="11" t="s">
@@ -3628,7 +3628,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c r="H119" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J119" s="11" t="s">
@@ -3648,7 +3648,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c r="H120" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J120" s="11" t="s">
@@ -3668,7 +3668,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J121" s="11" t="s">
@@ -3688,7 +3688,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c r="H122" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J122" s="11" t="s">
@@ -3708,7 +3708,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c r="H123" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J123" s="11" t="s">
@@ -3728,7 +3728,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J124" s="11" t="s">
@@ -3748,7 +3748,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c r="H125" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J125" s="11" t="s">
@@ -3768,7 +3768,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J126" s="11" t="s">
@@ -3788,7 +3788,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J127" s="11" t="s">
@@ -3808,7 +3808,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c r="H128" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J128" s="11" t="s">
@@ -3828,96 +3828,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 A1 I17:J19">
-    <cfRule type="cellIs" dxfId="17" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="16" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="15" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J56:J58 J60:J63">
-    <cfRule type="cellIs" dxfId="14" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
-    <cfRule type="cellIs" dxfId="13" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64">
-    <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J56:J64">
-    <cfRule type="cellIs" dxfId="11" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J65">
-    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J65">
-    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I56:I58 I60:I63">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I56:I64">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="J8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
